--- a/testData/zigWheels.xlsx
+++ b/testData/zigWheels.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="34">
   <si>
     <t>Models</t>
   </si>

--- a/testData/zigWheels.xlsx
+++ b/testData/zigWheels.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="35">
   <si>
     <t>Models</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Honda Rebel 300</t>
+  </si>
+  <si>
+    <t>Launch Date : 30 Mar 2024</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
